--- a/Anforderungen.xlsx
+++ b/Anforderungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\HAW\Bachelorprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC26EC01-3258-4E54-9E5D-867140FF7877}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ECC913A-795E-41CB-BEEB-9AD982CB0B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>Anforderung</t>
   </si>
   <si>
-    <t>Priorität TODO</t>
-  </si>
-  <si>
     <t>Autor</t>
   </si>
   <si>
@@ -108,22 +105,6 @@
     <t>KU9</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Signal wenn Akku gering ist (damit Plattform nicht verloren geht) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TODO </t>
-    </r>
-  </si>
-  <si>
     <t>KU10</t>
   </si>
   <si>
@@ -187,32 +168,6 @@
     <t>KO3</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Maximal X </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">TODO </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Werkzeugwechsel bei Montage</t>
-    </r>
-  </si>
-  <si>
     <t>KO4</t>
   </si>
   <si>
@@ -280,13 +235,22 @@
   </si>
   <si>
     <t>Bearbeitung und Stabilität der Plattform durch Werkstoff des Chassis gewährleisten</t>
+  </si>
+  <si>
+    <t>Priorität</t>
+  </si>
+  <si>
+    <t>Lichtsignal wenn Akku gering ist (damit Plattform nicht verloren geht)</t>
+  </si>
+  <si>
+    <t>Maximal 10 Werkzeugwechsel bei Montage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,14 +272,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -375,7 +331,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -660,16 +616,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,430 +633,430 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="55.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="97.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
